--- a/xtehr/mappable/AllergyIntolerance.xlsx
+++ b/xtehr/mappable/AllergyIntolerance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,32 +502,32 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>EHDSAllergyIntolerance.identifier</t>
+          <t>EHDSAllergyIntolerance.header</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EHDSAllergyIntolerance.identifier</t>
+          <t>EHDSAllergyIntolerance.header</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Identifier for the allergy/intolerance record</t>
+          <t>Common header for all patient-related data</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Identifier for the allergy/intolerance record</t>
+          <t>Common header for all patient-related data</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>Base</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0..*</t>
+          <t>1..1</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -535,22 +535,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EHDSAllergyIntolerance.subject</t>
+          <t>EHDSAllergyIntolerance.header.subject</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EHDSAllergyIntolerance.subject</t>
+          <t>EHDSAllergyIntolerance.header.subject</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>The patient who has the allergy or intolerance</t>
+          <t>Patient/subject information</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The patient who has the allergy or intolerance</t>
+          <t>Patient/subject information</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -568,69 +568,65 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>EHDSAllergyIntolerance.status</t>
+          <t>EHDSAllergyIntolerance.header.identifier</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>EHDSAllergyIntolerance.status</t>
+          <t>EHDSAllergyIntolerance.header.identifier</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Current status of the allergy or intolerance (e.g. active, in remission, resolved)</t>
+          <t>Business identifier for the object</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Current status of the allergy or intolerance (e.g. active, in remission, resolved)</t>
+          <t>Business identifier for the object</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CodeableConcept</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0..1</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>{'strength': 'preferred', 'description': 'SNOMED CT'}</t>
-        </is>
-      </c>
+          <t>0..*</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>EHDSAllergyIntolerance.allergyDescription</t>
+          <t>EHDSAllergyIntolerance.header.authorship</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>EHDSAllergyIntolerance.allergyDescription</t>
+          <t>EHDSAllergyIntolerance.header.authorship</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Textual description of the allergy or intolerance</t>
+          <t>Resource authoring details</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Textual description of the allergy or intolerance</t>
+          <t>Resource authoring details</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>Base</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0..1</t>
+          <t>1..*</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -638,69 +634,65 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>EHDSAllergyIntolerance.typeOfPropensity</t>
+          <t>EHDSAllergyIntolerance.header.authorship.author[x]</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>EHDSAllergyIntolerance.typeOfPropensity</t>
+          <t>EHDSAllergyIntolerance.header.authorship.author[x]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Type of propensity describes whether this condition refers to an allergy, non-allergy intolerance, or unknown class of intolerance (not known to be allergy or intolerance)</t>
+          <t>Author(s) by whom the resource was/were authored. Multiple authors could be provided.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Type of propensity describes whether this condition refers to an allergy, non-allergy intolerance, or unknown class of intolerance (not known to be allergy or intolerance)</t>
+          <t>Author(s) by whom the resource was/were authored. Multiple authors could be provided.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CodeableConcept</t>
+          <t>EHDSHealthProfessional</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0..1</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>{'strength': 'preferred', 'description': 'SNOMED CT'}</t>
-        </is>
-      </c>
+          <t>1..1</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>EHDSAllergyIntolerance.allergyManifestation</t>
+          <t>EHDSAllergyIntolerance.header.authorship.datetime</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>EHDSAllergyIntolerance.allergyManifestation</t>
+          <t>EHDSAllergyIntolerance.header.authorship.datetime</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Description of the clinical manifestation of the allergic reaction including date of manifestation and severity. Example: anaphylactic shock, angioedema (the clinical manifestation also gives information about the severity of the observed reaction).</t>
+          <t>Date and time of authoring/issuing</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Description of the clinical manifestation of the allergic reaction including date of manifestation and severity. Example: anaphylactic shock, angioedema (the clinical manifestation also gives information about the severity of the observed reaction).</t>
+          <t>Date and time of authoring/issuing</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Base</t>
+          <t>dateTime</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0..*</t>
+          <t>1..1</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -708,22 +700,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>EHDSAllergyIntolerance.allergyManifestation.date</t>
+          <t>EHDSAllergyIntolerance.header.lastUpdate</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>EHDSAllergyIntolerance.allergyManifestation.date</t>
+          <t>EHDSAllergyIntolerance.header.lastUpdate</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Date and time of allergy manifestation</t>
+          <t>Date and time of the last update to the resource (may be used for technical corrections).</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Date and time of allergy manifestation</t>
+          <t>Date and time of the last update to the resource (may be used for technical corrections).</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -741,22 +733,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>EHDSAllergyIntolerance.allergyManifestation.severity</t>
+          <t>EHDSAllergyIntolerance.header.status</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>EHDSAllergyIntolerance.allergyManifestation.severity</t>
+          <t>EHDSAllergyIntolerance.header.status</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Severity of the clinical manifestation of the allergic reaction.</t>
+          <t>Status of the resource or document</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Severity of the clinical manifestation of the allergic reaction.</t>
+          <t>Status of the resource or document</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -766,39 +758,35 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0..1</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>{'strength': 'preferred', 'description': 'SNOMED CT'}</t>
-        </is>
-      </c>
+          <t>1..1</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>EHDSAllergyIntolerance.allergyManifestation.description</t>
+          <t>EHDSAllergyIntolerance.header.statusReason[x]</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>EHDSAllergyIntolerance.allergyManifestation.description</t>
+          <t>EHDSAllergyIntolerance.header.statusReason[x]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Description of the event as a whole</t>
+          <t>Reason for the current status of the resource.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Description of the event as a whole</t>
+          <t>Reason for the current status of the resource.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>CodeableConcept</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -811,22 +799,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>EHDSAllergyIntolerance.allergyManifestation.manifestation</t>
+          <t>EHDSAllergyIntolerance.header.language</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>EHDSAllergyIntolerance.allergyManifestation.manifestation</t>
+          <t>EHDSAllergyIntolerance.header.language</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Clinical symptoms/signs associated with the event</t>
+          <t>Language in which the resource is written. Language is expressed by the IETF language tag.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Clinical symptoms/signs associated with the event</t>
+          <t>Language in which the resource is written. Language is expressed by the IETF language tag.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -836,34 +824,34 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0..*</t>
+          <t>0..1</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>{'strength': 'preferred', 'description': 'SNOMED CT'}</t>
+          <t>{'strength': 'preferred', 'description': 'BCP 47'}</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>EHDSAllergyIntolerance.criticality</t>
+          <t>EHDSAllergyIntolerance.agentOrAllergen</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>EHDSAllergyIntolerance.criticality</t>
+          <t>EHDSAllergyIntolerance.agentOrAllergen</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Potential risk for future life-threatening adverse reactions when exposed to a substance known to cause an adverse reaction.</t>
+          <t>A specific allergen or other agent/substance (drug, food, chemical agent, etc.) to which the patient has an adverse reaction propensity.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Potential risk for future life-threatening adverse reactions when exposed to a substance known to cause an adverse reaction.</t>
+          <t>A specific allergen or other agent/substance (drug, food, chemical agent, etc.) to which the patient has an adverse reaction propensity.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -873,39 +861,39 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0..1</t>
+          <t>1..1</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>{'strength': 'preferred', 'description': 'SNOMED CT'}</t>
+          <t>{'strength': 'preferred', 'description': '1.3.6.1.4.1.12559.11.10.1.3.1.42.24 **eHDSIActiveIngredient** (ATC, used in MH@EU); 1.3.6.1.4.1.12559.11.10.1.3.1.42.61 eHDSISubstance (EMA SMS, used in MH@EU); 1.3.6.1.4.1.12559.11.10.1.3.1.42.19 eHDSIAllergenNoDrug (SCT, used in MH@EU); ICD-11 Allergens'}</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>EHDSAllergyIntolerance.onsetDate</t>
+          <t>EHDSAllergyIntolerance.typeOfPropensity</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>EHDSAllergyIntolerance.onsetDate</t>
+          <t>EHDSAllergyIntolerance.typeOfPropensity</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Date of onset of allergy, e.g., date of the first observation of the reaction. Partial date could be used.</t>
+          <t>This element describes whether this condition refers to an allergy, non-allergy intolerance, or unknown class of intolerance (not known to be allergy or intolerance)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Date of onset of allergy, e.g., date of the first observation of the reaction. Partial date could be used.</t>
+          <t>This element describes whether this condition refers to an allergy, non-allergy intolerance, or unknown class of intolerance (not known to be allergy or intolerance)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>dateTime</t>
+          <t>CodeableConcept</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -913,32 +901,36 @@
           <t>0..1</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>{'strength': 'preferred', 'description': '1.3.6.1.4.1.12559.11.10.1.3.1.42.18 eHDSIAdverseEventType (SCT, used in MH@EU); http://hl7.org/fhir/ValueSet/allergy-intolerance-type (HL7, required in HL7 FHIR)'}</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EHDSAllergyIntolerance.onsetLifePeriod</t>
+          <t>EHDSAllergyIntolerance.description</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>EHDSAllergyIntolerance.onsetLifePeriod</t>
+          <t>EHDSAllergyIntolerance.description</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Onset life period (childhood, adolescence, etc.).</t>
+          <t>Textual description of the allergy or intolerance</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Onset life period (childhood, adolescence, etc.).</t>
+          <t>Textual description of the allergy or intolerance</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>CodeableConcept</t>
+          <t>string</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -946,36 +938,32 @@
           <t>0..1</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>{'strength': 'preferred', 'description': 'SNOMED CT'}</t>
-        </is>
-      </c>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>EHDSAllergyIntolerance.endDate</t>
+          <t>EHDSAllergyIntolerance.criticality</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>EHDSAllergyIntolerance.endDate</t>
+          <t>EHDSAllergyIntolerance.criticality</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Date of resolution of the allergy (e.g. when the clinician deemed there is no longer any need to track the underlying condition)</t>
+          <t>Estimate of the potential clinical harm, or seriousness, of a reaction to an identified substance.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Date of resolution of the allergy (e.g. when the clinician deemed there is no longer any need to track the underlying condition)</t>
+          <t>Estimate of the potential clinical harm, or seriousness, of a reaction to an identified substance.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>dateTime</t>
+          <t>CodeableConcept</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -983,27 +971,31 @@
           <t>0..1</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>{'strength': 'preferred', 'description': '1.3.6.1.4.1.12559.11.10.1.3.1.42.57 eHDSICriticality (HL7, used in MH@EU); http://hl7.org/fhir/ValueSet/allergy-intolerance-criticality (HL7, required in HL7 FHIR)'}</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>EHDSAllergyIntolerance.endDateLifePeriod</t>
+          <t>EHDSAllergyIntolerance.certainty</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>EHDSAllergyIntolerance.endDateLifePeriod</t>
+          <t>EHDSAllergyIntolerance.certainty</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Life period of resolution of the allergy (e.g. childhood, adolescence)</t>
+          <t>Assertion about the certainty associated with a propensity, or potential risk, of a reaction to the identified substance. Diagnostic and /or clinical evidence of condition</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Life period of resolution of the allergy (e.g. childhood, adolescence)</t>
+          <t>Assertion about the certainty associated with a propensity, or potential risk, of a reaction to the identified substance. Diagnostic and /or clinical evidence of condition</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1018,29 +1010,29 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>{'strength': 'preferred', 'description': 'SNOMED CT'}</t>
+          <t>{'strength': 'preferred', 'description': '1.3.6.1.4.1.12559.11.10.1.3.1.42.58 eHDSIAllergyCertainty (HL7, used in MH@EU) ; http://hl7.org/fhir/ValueSet/allergyintolerance-verification (HL7, required in HL7 FHIR)'}</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>EHDSAllergyIntolerance.certainty</t>
+          <t>EHDSAllergyIntolerance.status</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>EHDSAllergyIntolerance.certainty</t>
+          <t>EHDSAllergyIntolerance.status</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Assertion about the certainty associated with a propensity, or potential risk, of a reaction to the identified substance. Diagnostic and/or clinical evidence of condition.</t>
+          <t>Current status of the allergy or intolerance, for example, whether it is active, in remission, resolved, etc.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Assertion about the certainty associated with a propensity, or potential risk, of a reaction to the identified substance. Diagnostic and/or clinical evidence of condition.</t>
+          <t>Current status of the allergy or intolerance, for example, whether it is active, in remission, resolved, etc.</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1055,46 +1047,248 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>{'strength': 'preferred', 'description': 'SNOMED CT'}</t>
+          <t>{'strength': 'preferred', 'description': '1.3.6.1.4.1.12559.11.10.1.3.1.42.59 eHDSIAllergyStatus (HL7, used in MH@EU); http://hl7.org/fhir/ValueSet/allergyintolerance-clinical (HL7, required in HL7 FHIR)'}</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>EHDSAllergyIntolerance.agentOrAllergen</t>
+          <t>EHDSAllergyIntolerance.onsetDate</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>EHDSAllergyIntolerance.agentOrAllergen</t>
+          <t>EHDSAllergyIntolerance.onsetDate</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>A specific allergen or other agent/substance (drug, food, chemical agent, etc.) to which the patient has an adverse reaction propensity.</t>
+          <t>When allergy or intolerance was identified</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>A specific allergen or other agent/substance (drug, food, chemical agent, etc.) to which the patient has an adverse reaction propensity.</t>
+          <t>When allergy or intolerance was identified</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
+          <t>dateTime</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0..1</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>EHDSAllergyIntolerance.endDate</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>EHDSAllergyIntolerance.endDate</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Date of resolution of the allergy (e.g. when the clinician deemed there is no longer any need to track the underlying condition)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Date of resolution of the allergy (e.g. when the clinician deemed there is no longer any need to track the underlying condition)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>dateTime</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0..1</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>EHDSAllergyIntolerance.reaction</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>EHDSAllergyIntolerance.reaction</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Adverse Reaction Events linked to exposure to substance.</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Adverse Reaction Events linked to exposure to substance.</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Base</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0..*</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>EHDSAllergyIntolerance.reaction.manifestation</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>EHDSAllergyIntolerance.reaction.manifestation</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Description of the clinical manifestation of the allergic reaction. Example: anaphylactic shock, angioedema. (the clinical manifestation also gives information about the severity of the observed reaction).</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Description of the clinical manifestation of the allergic reaction. Example: anaphylactic shock, angioedema. (the clinical manifestation also gives information about the severity of the observed reaction).</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>CodeableConcept</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1..1</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>{'strength': 'preferred', 'description': 'SNOMED CT, ATC, EMA SPOR SMS'}</t>
-        </is>
-      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0..*</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>{'strength': 'preferred', 'description': '1.3.6.1.4.1.12559.11.10.1.3.1.42.5 eHDSIIllnessandDisorder (ICD-10, alternative in MH@EU); 1.3.6.1.4.1.12559.11.10.1.3.1.42.11 eHDSIReactionAllergy (SCT, alternative in MH@EU); ICD-11 MMS'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>EHDSAllergyIntolerance.reaction.date</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>EHDSAllergyIntolerance.reaction.date</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Date and time of allergy manifestation</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Date and time of allergy manifestation</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>dateTime</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0..1</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>EHDSAllergyIntolerance.reaction.severity</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>EHDSAllergyIntolerance.reaction.severity</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Severity of the clinical manifestation of the allergic reaction.</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Severity of the clinical manifestation of the allergic reaction.</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>CodeableConcept</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0..1</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>{'strength': 'preferred', 'description': '1.3.6.1.4.1.12559.11.10.1.3.1.42.13 eHDSISeverity (SCT, used in MH@EU); http://hl7.org/fhir/ValueSet/reaction-event-severity (HL7, Required in HL7 FHIR)'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>EHDSAllergyIntolerance.reaction.onsetDate</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>EHDSAllergyIntolerance.reaction.onsetDate</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Date of the observation of the reaction</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Date of the observation of the reaction</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>dateTime</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0..1</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
